--- a/excel/levels_config.xlsx
+++ b/excel/levels_config.xlsx
@@ -27,18 +27,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>编号【KEY】</t>
   </si>
   <si>
-    <t>关卡编号</t>
+    <t>关卡数</t>
   </si>
   <si>
-    <t>基础钞票奖励</t>
-  </si>
-  <si>
-    <t>额外钞票奖励</t>
+    <t>关卡操作步数</t>
   </si>
   <si>
     <t>id</t>
@@ -47,10 +44,7 @@
     <t>level</t>
   </si>
   <si>
-    <t>reward_basics</t>
-  </si>
-  <si>
-    <t>reward_additional</t>
+    <t>step</t>
   </si>
   <si>
     <t>int</t>
@@ -682,15 +676,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1223,244 +1220,427 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J9" sqref="F8 J9"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="11.625" customWidth="1"/>
-    <col min="2" max="2" width="11.125" customWidth="1"/>
-    <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="1" max="1" width="11.1333333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" ht="16.5" spans="1:5">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" ht="16.5" spans="1:5">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" ht="16.5" spans="1:5">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" ht="16.5" spans="1:3">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" ht="16.5" spans="1:5">
-      <c r="A3" s="3" t="s">
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="1:3">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="5">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5">
+        <v>20</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="5">
+        <v>2</v>
+      </c>
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5">
+        <v>20</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="5">
+        <v>3</v>
+      </c>
+      <c r="B8" s="5">
+        <v>3</v>
+      </c>
+      <c r="C8" s="5">
+        <v>20</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="5">
+        <v>4</v>
+      </c>
+      <c r="B9" s="5">
+        <v>4</v>
+      </c>
+      <c r="C9" s="5">
+        <v>20</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="5">
+        <v>5</v>
+      </c>
+      <c r="B10" s="5">
+        <v>5</v>
+      </c>
+      <c r="C10" s="5">
+        <v>20</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="5">
+        <v>6</v>
+      </c>
+      <c r="B11" s="5">
+        <v>6</v>
+      </c>
+      <c r="C11" s="5">
+        <v>20</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5">
+        <v>7</v>
+      </c>
+      <c r="B12" s="5">
+        <v>7</v>
+      </c>
+      <c r="C12" s="5">
+        <v>20</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="5">
         <v>8</v>
       </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" ht="16.5" spans="1:5">
-      <c r="A4" s="3" t="s">
+      <c r="B13" s="5">
+        <v>8</v>
+      </c>
+      <c r="C13" s="5">
+        <v>20</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="5">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B14" s="5">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" ht="16.5" spans="1:5">
-      <c r="A5" s="3" t="s">
+      <c r="C14" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="5">
         <v>10</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B15" s="5">
         <v>10</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="4">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4">
-        <v>200</v>
-      </c>
-      <c r="D6" s="4">
-        <v>300</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="4">
-        <v>2</v>
-      </c>
-      <c r="B7" s="4">
-        <v>2</v>
-      </c>
-      <c r="C7" s="4">
-        <v>400</v>
-      </c>
-      <c r="D7" s="4">
-        <v>600</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="4">
-        <v>3</v>
-      </c>
-      <c r="B8" s="4">
-        <v>3</v>
-      </c>
-      <c r="C8" s="4">
-        <v>600</v>
-      </c>
-      <c r="D8" s="4">
-        <v>900</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="4">
-        <v>4</v>
-      </c>
-      <c r="B9" s="4">
-        <v>4</v>
-      </c>
-      <c r="C9" s="4">
-        <v>800</v>
-      </c>
-      <c r="D9" s="4">
-        <v>1200</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="4">
-        <v>5</v>
-      </c>
-      <c r="B10" s="4">
-        <v>5</v>
-      </c>
-      <c r="C10" s="4">
-        <v>1000</v>
-      </c>
-      <c r="D10" s="4">
-        <v>1500</v>
-      </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="4">
-        <v>6</v>
-      </c>
-      <c r="B11" s="4">
-        <v>6</v>
-      </c>
-      <c r="C11" s="4">
-        <v>1200</v>
-      </c>
-      <c r="D11" s="4">
-        <v>1800</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4">
-        <v>7</v>
-      </c>
-      <c r="B12" s="4">
-        <v>7</v>
-      </c>
-      <c r="C12" s="4">
-        <v>1400</v>
-      </c>
-      <c r="D12" s="4">
-        <v>2100</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="4">
-        <v>8</v>
-      </c>
-      <c r="B13" s="4">
-        <v>8</v>
-      </c>
-      <c r="C13" s="4">
-        <v>1600</v>
-      </c>
-      <c r="D13" s="4">
-        <v>2400</v>
-      </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="4">
-        <v>9</v>
-      </c>
-      <c r="B14" s="4">
-        <v>9</v>
-      </c>
-      <c r="C14" s="4">
-        <v>1800</v>
-      </c>
-      <c r="D14" s="4">
-        <v>2700</v>
-      </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="4">
-        <v>10</v>
-      </c>
-      <c r="B15" s="4">
-        <v>10</v>
-      </c>
-      <c r="C15" s="4">
-        <v>2000</v>
-      </c>
-      <c r="D15" s="4">
-        <v>3000</v>
+      <c r="C15" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="5">
+        <v>11</v>
+      </c>
+      <c r="B16" s="5">
+        <v>11</v>
+      </c>
+      <c r="C16" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="5">
+        <v>12</v>
+      </c>
+      <c r="B17" s="5">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="5">
+        <v>13</v>
+      </c>
+      <c r="B18" s="5">
+        <v>13</v>
+      </c>
+      <c r="C18" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="5">
+        <v>14</v>
+      </c>
+      <c r="B19" s="5">
+        <v>14</v>
+      </c>
+      <c r="C19" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="5">
+        <v>15</v>
+      </c>
+      <c r="B20" s="5">
+        <v>15</v>
+      </c>
+      <c r="C20" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="5">
+        <v>16</v>
+      </c>
+      <c r="B21" s="5">
+        <v>16</v>
+      </c>
+      <c r="C21" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="5">
+        <v>17</v>
+      </c>
+      <c r="B22" s="5">
+        <v>17</v>
+      </c>
+      <c r="C22" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="5">
+        <v>18</v>
+      </c>
+      <c r="B23" s="5">
+        <v>18</v>
+      </c>
+      <c r="C23" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="5">
+        <v>19</v>
+      </c>
+      <c r="B24" s="5">
+        <v>19</v>
+      </c>
+      <c r="C24" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="5">
+        <v>20</v>
+      </c>
+      <c r="B25" s="5">
+        <v>20</v>
+      </c>
+      <c r="C25" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="5">
+        <v>21</v>
+      </c>
+      <c r="B26" s="5">
+        <v>21</v>
+      </c>
+      <c r="C26" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="5">
+        <v>22</v>
+      </c>
+      <c r="B27" s="5">
+        <v>22</v>
+      </c>
+      <c r="C27" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="5">
+        <v>23</v>
+      </c>
+      <c r="B28" s="5">
+        <v>23</v>
+      </c>
+      <c r="C28" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="5">
+        <v>24</v>
+      </c>
+      <c r="B29" s="5">
+        <v>24</v>
+      </c>
+      <c r="C29" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="5">
+        <v>25</v>
+      </c>
+      <c r="B30" s="5">
+        <v>25</v>
+      </c>
+      <c r="C30" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="5">
+        <v>26</v>
+      </c>
+      <c r="B31" s="5">
+        <v>26</v>
+      </c>
+      <c r="C31" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="5">
+        <v>27</v>
+      </c>
+      <c r="B32" s="5">
+        <v>27</v>
+      </c>
+      <c r="C32" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="5">
+        <v>28</v>
+      </c>
+      <c r="B33" s="5">
+        <v>28</v>
+      </c>
+      <c r="C33" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="5">
+        <v>29</v>
+      </c>
+      <c r="B34" s="5">
+        <v>29</v>
+      </c>
+      <c r="C34" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="5">
+        <v>30</v>
+      </c>
+      <c r="B35" s="5">
+        <v>30</v>
+      </c>
+      <c r="C35" s="1">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/excel/levels_config.xlsx
+++ b/excel/levels_config.xlsx
@@ -1225,7 +1225,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1305,7 +1305,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="5">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -1318,7 +1318,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="5">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -1331,7 +1331,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="5">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1344,7 +1344,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="5">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1357,7 +1357,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="5">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1370,7 +1370,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="5">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1383,7 +1383,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="5">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -1396,7 +1396,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="5">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -1409,7 +1409,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="5">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1420,7 +1420,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="5">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1430,8 +1430,8 @@
       <c r="B16" s="5">
         <v>11</v>
       </c>
-      <c r="C16" s="1">
-        <v>30</v>
+      <c r="C16" s="5">
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1441,8 +1441,8 @@
       <c r="B17" s="5">
         <v>12</v>
       </c>
-      <c r="C17" s="1">
-        <v>30</v>
+      <c r="C17" s="5">
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1452,8 +1452,8 @@
       <c r="B18" s="5">
         <v>13</v>
       </c>
-      <c r="C18" s="1">
-        <v>30</v>
+      <c r="C18" s="5">
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1463,8 +1463,8 @@
       <c r="B19" s="5">
         <v>14</v>
       </c>
-      <c r="C19" s="1">
-        <v>30</v>
+      <c r="C19" s="5">
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1474,8 +1474,8 @@
       <c r="B20" s="5">
         <v>15</v>
       </c>
-      <c r="C20" s="1">
-        <v>30</v>
+      <c r="C20" s="5">
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1485,8 +1485,8 @@
       <c r="B21" s="5">
         <v>16</v>
       </c>
-      <c r="C21" s="1">
-        <v>30</v>
+      <c r="C21" s="5">
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1496,8 +1496,8 @@
       <c r="B22" s="5">
         <v>17</v>
       </c>
-      <c r="C22" s="1">
-        <v>30</v>
+      <c r="C22" s="5">
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1507,8 +1507,8 @@
       <c r="B23" s="5">
         <v>18</v>
       </c>
-      <c r="C23" s="1">
-        <v>30</v>
+      <c r="C23" s="5">
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1518,8 +1518,8 @@
       <c r="B24" s="5">
         <v>19</v>
       </c>
-      <c r="C24" s="1">
-        <v>30</v>
+      <c r="C24" s="5">
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1529,8 +1529,8 @@
       <c r="B25" s="5">
         <v>20</v>
       </c>
-      <c r="C25" s="1">
-        <v>30</v>
+      <c r="C25" s="5">
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1540,8 +1540,8 @@
       <c r="B26" s="5">
         <v>21</v>
       </c>
-      <c r="C26" s="1">
-        <v>40</v>
+      <c r="C26" s="5">
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1551,8 +1551,8 @@
       <c r="B27" s="5">
         <v>22</v>
       </c>
-      <c r="C27" s="1">
-        <v>40</v>
+      <c r="C27" s="5">
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1562,8 +1562,8 @@
       <c r="B28" s="5">
         <v>23</v>
       </c>
-      <c r="C28" s="1">
-        <v>40</v>
+      <c r="C28" s="5">
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1573,8 +1573,8 @@
       <c r="B29" s="5">
         <v>24</v>
       </c>
-      <c r="C29" s="1">
-        <v>40</v>
+      <c r="C29" s="5">
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1584,8 +1584,8 @@
       <c r="B30" s="5">
         <v>25</v>
       </c>
-      <c r="C30" s="1">
-        <v>40</v>
+      <c r="C30" s="5">
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1595,8 +1595,8 @@
       <c r="B31" s="5">
         <v>26</v>
       </c>
-      <c r="C31" s="1">
-        <v>40</v>
+      <c r="C31" s="5">
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1606,8 +1606,8 @@
       <c r="B32" s="5">
         <v>27</v>
       </c>
-      <c r="C32" s="1">
-        <v>40</v>
+      <c r="C32" s="5">
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1617,8 +1617,8 @@
       <c r="B33" s="5">
         <v>28</v>
       </c>
-      <c r="C33" s="1">
-        <v>40</v>
+      <c r="C33" s="5">
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1628,8 +1628,8 @@
       <c r="B34" s="5">
         <v>29</v>
       </c>
-      <c r="C34" s="1">
-        <v>40</v>
+      <c r="C34" s="5">
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1639,8 +1639,8 @@
       <c r="B35" s="5">
         <v>30</v>
       </c>
-      <c r="C35" s="1">
-        <v>40</v>
+      <c r="C35" s="5">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/excel/levels_config.xlsx
+++ b/excel/levels_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="19788" windowHeight="13380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>编号【KEY】</t>
   </si>
@@ -38,6 +38,9 @@
     <t>关卡操作步数</t>
   </si>
   <si>
+    <t>是否参与随机</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -45,6 +48,9 @@
   </si>
   <si>
     <t>step</t>
+  </si>
+  <si>
+    <t>random</t>
   </si>
   <si>
     <t>int</t>
@@ -1225,18 +1231,19 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H35" sqref="H35"/>
+      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="11.1333333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1296296296296" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.5" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="11.8796296296296" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:5">
+    <row r="1" ht="15.6" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1246,55 +1253,67 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" ht="16.5" spans="1:5">
+    <row r="2" ht="15.6" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" ht="16.5" spans="1:5">
+    <row r="3" ht="15.6" spans="1:5">
       <c r="A3" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" ht="16.5" spans="1:3">
+    <row r="4" ht="15.6" spans="1:4">
       <c r="A4" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" ht="16.5" spans="1:3">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" ht="15.6" spans="1:4">
       <c r="A5" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1307,7 +1326,9 @@
       <c r="C6" s="5">
         <v>33</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5">
@@ -1320,7 +1341,9 @@
       <c r="C7" s="5">
         <v>33</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5">
@@ -1333,7 +1356,9 @@
       <c r="C8" s="5">
         <v>33</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5">
@@ -1346,7 +1371,9 @@
       <c r="C9" s="5">
         <v>33</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5">
@@ -1359,7 +1386,9 @@
       <c r="C10" s="5">
         <v>33</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5">
@@ -1372,7 +1401,9 @@
       <c r="C11" s="5">
         <v>33</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5">
@@ -1385,7 +1416,9 @@
       <c r="C12" s="5">
         <v>33</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5">
@@ -1398,10 +1431,12 @@
       <c r="C13" s="5">
         <v>33</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4">
       <c r="A14" s="5">
         <v>9</v>
       </c>
@@ -1411,8 +1446,11 @@
       <c r="C14" s="5">
         <v>33</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="5">
         <v>10</v>
       </c>
@@ -1422,8 +1460,11 @@
       <c r="C15" s="5">
         <v>33</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="5">
         <v>11</v>
       </c>
@@ -1433,8 +1474,11 @@
       <c r="C16" s="5">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="5">
         <v>12</v>
       </c>
@@ -1444,8 +1488,11 @@
       <c r="C17" s="5">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="5">
         <v>13</v>
       </c>
@@ -1455,8 +1502,11 @@
       <c r="C18" s="5">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="5">
         <v>14</v>
       </c>
@@ -1466,8 +1516,11 @@
       <c r="C19" s="5">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="5">
         <v>15</v>
       </c>
@@ -1477,8 +1530,11 @@
       <c r="C20" s="5">
         <v>33</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="5">
         <v>16</v>
       </c>
@@ -1488,8 +1544,11 @@
       <c r="C21" s="5">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="5">
         <v>17</v>
       </c>
@@ -1499,8 +1558,11 @@
       <c r="C22" s="5">
         <v>33</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="5">
         <v>18</v>
       </c>
@@ -1510,8 +1572,11 @@
       <c r="C23" s="5">
         <v>33</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="5">
         <v>19</v>
       </c>
@@ -1521,8 +1586,11 @@
       <c r="C24" s="5">
         <v>33</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="5">
         <v>20</v>
       </c>
@@ -1532,8 +1600,11 @@
       <c r="C25" s="5">
         <v>33</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="5">
         <v>21</v>
       </c>
@@ -1543,8 +1614,11 @@
       <c r="C26" s="5">
         <v>33</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="5">
         <v>22</v>
       </c>
@@ -1554,8 +1628,11 @@
       <c r="C27" s="5">
         <v>33</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="5">
         <v>23</v>
       </c>
@@ -1565,8 +1642,11 @@
       <c r="C28" s="5">
         <v>33</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="5">
         <v>24</v>
       </c>
@@ -1576,8 +1656,11 @@
       <c r="C29" s="5">
         <v>33</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="5">
         <v>25</v>
       </c>
@@ -1587,8 +1670,11 @@
       <c r="C30" s="5">
         <v>33</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="5">
         <v>26</v>
       </c>
@@ -1598,8 +1684,11 @@
       <c r="C31" s="5">
         <v>33</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="5">
         <v>27</v>
       </c>
@@ -1609,8 +1698,11 @@
       <c r="C32" s="5">
         <v>33</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="5">
         <v>28</v>
       </c>
@@ -1620,8 +1712,11 @@
       <c r="C33" s="5">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="5">
         <v>29</v>
       </c>
@@ -1631,8 +1726,11 @@
       <c r="C34" s="5">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="5">
         <v>30</v>
       </c>
@@ -1641,6 +1739,9 @@
       </c>
       <c r="C35" s="5">
         <v>33</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/excel/levels_config.xlsx
+++ b/excel/levels_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19788" windowHeight="13380"/>
+    <workbookView windowWidth="12315" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1226,24 +1226,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="11.1296296296296" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1333333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.8796296296296" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.8833333333333" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:5">
+    <row r="1" ht="16.5" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1258,7 +1258,7 @@
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" ht="15.6" spans="1:5">
+    <row r="2" ht="16.5" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" ht="15.6" spans="1:5">
+    <row r="3" ht="16.5" spans="1:5">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -1288,7 +1288,7 @@
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" ht="15.6" spans="1:4">
+    <row r="4" ht="16.5" spans="1:4">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" ht="15.6" spans="1:4">
+    <row r="5" ht="16.5" spans="1:4">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -1324,10 +1324,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="5">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -1339,7 +1339,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="5">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D7" s="3">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="5">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="5">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D9" s="3">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="5">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D10" s="3">
         <v>0</v>
@@ -1399,7 +1399,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="5">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D11" s="3">
         <v>0</v>
@@ -1414,7 +1414,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="5">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D12" s="3">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="5">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D13" s="3">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="5">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
@@ -1458,7 +1458,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="5">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
@@ -1472,10 +1472,10 @@
         <v>11</v>
       </c>
       <c r="C16" s="5">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1486,10 +1486,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="5">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1500,7 +1500,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="5">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D18" s="3">
         <v>0</v>
@@ -1514,10 +1514,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="5">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1528,10 +1528,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="5">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1542,7 +1542,7 @@
         <v>16</v>
       </c>
       <c r="C21" s="5">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D21" s="3">
         <v>0</v>
@@ -1556,10 +1556,10 @@
         <v>17</v>
       </c>
       <c r="C22" s="5">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1570,10 +1570,10 @@
         <v>18</v>
       </c>
       <c r="C23" s="5">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1584,7 +1584,7 @@
         <v>19</v>
       </c>
       <c r="C24" s="5">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
@@ -1598,10 +1598,10 @@
         <v>20</v>
       </c>
       <c r="C25" s="5">
-        <v>33</v>
-      </c>
-      <c r="D25" s="1">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1612,9 +1612,9 @@
         <v>21</v>
       </c>
       <c r="C26" s="5">
-        <v>33</v>
-      </c>
-      <c r="D26" s="1">
+        <v>35</v>
+      </c>
+      <c r="D26" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1626,9 +1626,9 @@
         <v>22</v>
       </c>
       <c r="C27" s="5">
-        <v>33</v>
-      </c>
-      <c r="D27" s="1">
+        <v>35</v>
+      </c>
+      <c r="D27" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1640,10 +1640,10 @@
         <v>23</v>
       </c>
       <c r="C28" s="5">
-        <v>33</v>
-      </c>
-      <c r="D28" s="1">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1654,9 +1654,9 @@
         <v>24</v>
       </c>
       <c r="C29" s="5">
-        <v>33</v>
-      </c>
-      <c r="D29" s="1">
+        <v>35</v>
+      </c>
+      <c r="D29" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1668,9 +1668,9 @@
         <v>25</v>
       </c>
       <c r="C30" s="5">
-        <v>33</v>
-      </c>
-      <c r="D30" s="1">
+        <v>35</v>
+      </c>
+      <c r="D30" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1682,10 +1682,10 @@
         <v>26</v>
       </c>
       <c r="C31" s="5">
-        <v>33</v>
-      </c>
-      <c r="D31" s="1">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1696,9 +1696,9 @@
         <v>27</v>
       </c>
       <c r="C32" s="5">
-        <v>33</v>
-      </c>
-      <c r="D32" s="1">
+        <v>35</v>
+      </c>
+      <c r="D32" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1710,9 +1710,9 @@
         <v>28</v>
       </c>
       <c r="C33" s="5">
-        <v>33</v>
-      </c>
-      <c r="D33" s="1">
+        <v>35</v>
+      </c>
+      <c r="D33" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1724,10 +1724,10 @@
         <v>29</v>
       </c>
       <c r="C34" s="5">
-        <v>33</v>
-      </c>
-      <c r="D34" s="1">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1738,9 +1738,359 @@
         <v>30</v>
       </c>
       <c r="C35" s="5">
+        <v>100</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="5">
+        <v>31</v>
+      </c>
+      <c r="B36" s="5">
+        <v>31</v>
+      </c>
+      <c r="C36" s="5">
+        <v>100</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="5">
+        <v>32</v>
+      </c>
+      <c r="B37" s="5">
+        <v>32</v>
+      </c>
+      <c r="C37" s="5">
+        <v>100</v>
+      </c>
+      <c r="D37" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="5">
         <v>33</v>
       </c>
-      <c r="D35" s="1">
+      <c r="B38" s="5">
+        <v>33</v>
+      </c>
+      <c r="C38" s="5">
+        <v>100</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="5">
+        <v>34</v>
+      </c>
+      <c r="B39" s="5">
+        <v>34</v>
+      </c>
+      <c r="C39" s="5">
+        <v>100</v>
+      </c>
+      <c r="D39" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="5">
+        <v>35</v>
+      </c>
+      <c r="B40" s="5">
+        <v>35</v>
+      </c>
+      <c r="C40" s="5">
+        <v>100</v>
+      </c>
+      <c r="D40" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="5">
+        <v>36</v>
+      </c>
+      <c r="B41" s="5">
+        <v>36</v>
+      </c>
+      <c r="C41" s="5">
+        <v>100</v>
+      </c>
+      <c r="D41" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="5">
+        <v>37</v>
+      </c>
+      <c r="B42" s="5">
+        <v>37</v>
+      </c>
+      <c r="C42" s="5">
+        <v>100</v>
+      </c>
+      <c r="D42" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="5">
+        <v>38</v>
+      </c>
+      <c r="B43" s="5">
+        <v>38</v>
+      </c>
+      <c r="C43" s="5">
+        <v>100</v>
+      </c>
+      <c r="D43" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="5">
+        <v>39</v>
+      </c>
+      <c r="B44" s="5">
+        <v>39</v>
+      </c>
+      <c r="C44" s="5">
+        <v>100</v>
+      </c>
+      <c r="D44" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="5">
+        <v>40</v>
+      </c>
+      <c r="B45" s="5">
+        <v>40</v>
+      </c>
+      <c r="C45" s="5">
+        <v>100</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="5">
+        <v>41</v>
+      </c>
+      <c r="B46" s="5">
+        <v>41</v>
+      </c>
+      <c r="C46" s="5">
+        <v>100</v>
+      </c>
+      <c r="D46" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="5">
+        <v>42</v>
+      </c>
+      <c r="B47" s="5">
+        <v>42</v>
+      </c>
+      <c r="C47" s="5">
+        <v>100</v>
+      </c>
+      <c r="D47" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="5">
+        <v>43</v>
+      </c>
+      <c r="B48" s="5">
+        <v>43</v>
+      </c>
+      <c r="C48" s="5">
+        <v>100</v>
+      </c>
+      <c r="D48" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="5">
+        <v>44</v>
+      </c>
+      <c r="B49" s="5">
+        <v>44</v>
+      </c>
+      <c r="C49" s="5">
+        <v>100</v>
+      </c>
+      <c r="D49" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="5">
+        <v>45</v>
+      </c>
+      <c r="B50" s="5">
+        <v>45</v>
+      </c>
+      <c r="C50" s="5">
+        <v>100</v>
+      </c>
+      <c r="D50" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="5">
+        <v>46</v>
+      </c>
+      <c r="B51" s="5">
+        <v>46</v>
+      </c>
+      <c r="C51" s="5">
+        <v>100</v>
+      </c>
+      <c r="D51" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="5">
+        <v>47</v>
+      </c>
+      <c r="B52" s="5">
+        <v>47</v>
+      </c>
+      <c r="C52" s="5">
+        <v>100</v>
+      </c>
+      <c r="D52" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="5">
+        <v>48</v>
+      </c>
+      <c r="B53" s="5">
+        <v>48</v>
+      </c>
+      <c r="C53" s="5">
+        <v>100</v>
+      </c>
+      <c r="D53" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="5">
+        <v>49</v>
+      </c>
+      <c r="B54" s="5">
+        <v>49</v>
+      </c>
+      <c r="C54" s="5">
+        <v>100</v>
+      </c>
+      <c r="D54" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="5">
+        <v>50</v>
+      </c>
+      <c r="B55" s="5">
+        <v>50</v>
+      </c>
+      <c r="C55" s="5">
+        <v>100</v>
+      </c>
+      <c r="D55" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="5">
+        <v>51</v>
+      </c>
+      <c r="B56" s="5">
+        <v>51</v>
+      </c>
+      <c r="C56" s="5">
+        <v>100</v>
+      </c>
+      <c r="D56" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="5">
+        <v>52</v>
+      </c>
+      <c r="B57" s="5">
+        <v>52</v>
+      </c>
+      <c r="C57" s="5">
+        <v>100</v>
+      </c>
+      <c r="D57" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="5">
+        <v>53</v>
+      </c>
+      <c r="B58" s="5">
+        <v>53</v>
+      </c>
+      <c r="C58" s="5">
+        <v>100</v>
+      </c>
+      <c r="D58" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="5">
+        <v>54</v>
+      </c>
+      <c r="B59" s="5">
+        <v>54</v>
+      </c>
+      <c r="C59" s="5">
+        <v>100</v>
+      </c>
+      <c r="D59" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="5">
+        <v>55</v>
+      </c>
+      <c r="B60" s="5">
+        <v>55</v>
+      </c>
+      <c r="C60" s="5">
+        <v>100</v>
+      </c>
+      <c r="D60" s="3">
         <v>1</v>
       </c>
     </row>

--- a/excel/levels_config.xlsx
+++ b/excel/levels_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12315" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1226,12 +1226,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
+      <selection pane="bottomLeft" activeCell="M68" sqref="M68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1327,7 +1327,7 @@
         <v>20</v>
       </c>
       <c r="D6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -1738,7 +1738,7 @@
         <v>30</v>
       </c>
       <c r="C35" s="5">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="D35" s="3">
         <v>0</v>
@@ -1752,7 +1752,7 @@
         <v>31</v>
       </c>
       <c r="C36" s="5">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="D36" s="3">
         <v>1</v>
@@ -1766,7 +1766,7 @@
         <v>32</v>
       </c>
       <c r="C37" s="5">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="D37" s="3">
         <v>1</v>
@@ -1780,7 +1780,7 @@
         <v>33</v>
       </c>
       <c r="C38" s="5">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="D38" s="3">
         <v>1</v>
@@ -1794,7 +1794,7 @@
         <v>34</v>
       </c>
       <c r="C39" s="5">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D39" s="3">
         <v>1</v>
@@ -1808,7 +1808,7 @@
         <v>35</v>
       </c>
       <c r="C40" s="5">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D40" s="3">
         <v>1</v>
@@ -1822,7 +1822,7 @@
         <v>36</v>
       </c>
       <c r="C41" s="5">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="D41" s="3">
         <v>1</v>
@@ -1836,7 +1836,7 @@
         <v>37</v>
       </c>
       <c r="C42" s="5">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D42" s="3">
         <v>1</v>
@@ -1850,7 +1850,7 @@
         <v>38</v>
       </c>
       <c r="C43" s="5">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D43" s="3">
         <v>1</v>
@@ -1864,7 +1864,7 @@
         <v>39</v>
       </c>
       <c r="C44" s="5">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="D44" s="3">
         <v>1</v>
@@ -1878,7 +1878,7 @@
         <v>40</v>
       </c>
       <c r="C45" s="5">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>41</v>
       </c>
       <c r="C46" s="5">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D46" s="3">
         <v>1</v>
@@ -1906,7 +1906,7 @@
         <v>42</v>
       </c>
       <c r="C47" s="5">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D47" s="3">
         <v>1</v>
@@ -1920,7 +1920,7 @@
         <v>43</v>
       </c>
       <c r="C48" s="5">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="D48" s="3">
         <v>1</v>
@@ -1934,7 +1934,7 @@
         <v>44</v>
       </c>
       <c r="C49" s="5">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D49" s="3">
         <v>1</v>
@@ -1948,7 +1948,7 @@
         <v>45</v>
       </c>
       <c r="C50" s="5">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D50" s="3">
         <v>1</v>
@@ -1962,7 +1962,7 @@
         <v>46</v>
       </c>
       <c r="C51" s="5">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="D51" s="3">
         <v>1</v>
@@ -1976,7 +1976,7 @@
         <v>47</v>
       </c>
       <c r="C52" s="5">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>1</v>
@@ -1990,7 +1990,7 @@
         <v>48</v>
       </c>
       <c r="C53" s="5">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D53" s="3">
         <v>1</v>
@@ -2004,7 +2004,7 @@
         <v>49</v>
       </c>
       <c r="C54" s="5">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="D54" s="3">
         <v>1</v>
@@ -2018,7 +2018,7 @@
         <v>50</v>
       </c>
       <c r="C55" s="5">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="D55" s="3">
         <v>0</v>
@@ -2032,7 +2032,7 @@
         <v>51</v>
       </c>
       <c r="C56" s="5">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D56" s="3">
         <v>1</v>
@@ -2046,7 +2046,7 @@
         <v>52</v>
       </c>
       <c r="C57" s="5">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D57" s="3">
         <v>1</v>
@@ -2060,7 +2060,7 @@
         <v>53</v>
       </c>
       <c r="C58" s="5">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="D58" s="3">
         <v>1</v>
@@ -2074,7 +2074,7 @@
         <v>54</v>
       </c>
       <c r="C59" s="5">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D59" s="3">
         <v>1</v>
@@ -2088,10 +2088,220 @@
         <v>55</v>
       </c>
       <c r="C60" s="5">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D60" s="3">
         <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="5">
+        <v>56</v>
+      </c>
+      <c r="B61" s="5">
+        <v>56</v>
+      </c>
+      <c r="C61" s="1">
+        <v>35</v>
+      </c>
+      <c r="D61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="5">
+        <v>57</v>
+      </c>
+      <c r="B62" s="5">
+        <v>57</v>
+      </c>
+      <c r="C62" s="1">
+        <v>45</v>
+      </c>
+      <c r="D62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="5">
+        <v>58</v>
+      </c>
+      <c r="B63" s="5">
+        <v>58</v>
+      </c>
+      <c r="C63" s="1">
+        <v>45</v>
+      </c>
+      <c r="D63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="5">
+        <v>59</v>
+      </c>
+      <c r="B64" s="5">
+        <v>59</v>
+      </c>
+      <c r="C64" s="1">
+        <v>35</v>
+      </c>
+      <c r="D64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="5">
+        <v>60</v>
+      </c>
+      <c r="B65" s="5">
+        <v>60</v>
+      </c>
+      <c r="C65" s="1">
+        <v>36</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="5">
+        <v>61</v>
+      </c>
+      <c r="B66" s="5">
+        <v>61</v>
+      </c>
+      <c r="C66" s="1">
+        <v>45</v>
+      </c>
+      <c r="D66" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="5">
+        <v>62</v>
+      </c>
+      <c r="B67" s="5">
+        <v>62</v>
+      </c>
+      <c r="C67" s="1">
+        <v>45</v>
+      </c>
+      <c r="D67" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="5">
+        <v>63</v>
+      </c>
+      <c r="B68" s="5">
+        <v>63</v>
+      </c>
+      <c r="C68" s="1">
+        <v>35</v>
+      </c>
+      <c r="D68" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="5">
+        <v>64</v>
+      </c>
+      <c r="B69" s="5">
+        <v>64</v>
+      </c>
+      <c r="C69" s="1">
+        <v>45</v>
+      </c>
+      <c r="D69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="5">
+        <v>65</v>
+      </c>
+      <c r="B70" s="5">
+        <v>65</v>
+      </c>
+      <c r="C70" s="1">
+        <v>45</v>
+      </c>
+      <c r="D70" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="5">
+        <v>66</v>
+      </c>
+      <c r="B71" s="5">
+        <v>66</v>
+      </c>
+      <c r="C71" s="1">
+        <v>35</v>
+      </c>
+      <c r="D71" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="5">
+        <v>67</v>
+      </c>
+      <c r="B72" s="5">
+        <v>67</v>
+      </c>
+      <c r="C72" s="1">
+        <v>45</v>
+      </c>
+      <c r="D72" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="5">
+        <v>68</v>
+      </c>
+      <c r="B73" s="5">
+        <v>68</v>
+      </c>
+      <c r="C73" s="1">
+        <v>45</v>
+      </c>
+      <c r="D73" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="5">
+        <v>69</v>
+      </c>
+      <c r="B74" s="5">
+        <v>69</v>
+      </c>
+      <c r="C74" s="1">
+        <v>35</v>
+      </c>
+      <c r="D74" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="5">
+        <v>70</v>
+      </c>
+      <c r="B75" s="5">
+        <v>70</v>
+      </c>
+      <c r="C75" s="1">
+        <v>22</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/excel/levels_config.xlsx
+++ b/excel/levels_config.xlsx
@@ -1229,9 +1229,9 @@
   <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M68" sqref="M68"/>
+      <selection pane="bottomLeft" activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
